--- a/biology/Histoire de la zoologie et de la botanique/Pierandrea_Mattioli/Pierandrea_Mattioli.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierandrea_Mattioli/Pierandrea_Mattioli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pietro Andrea Matthioli (ou Mattioli, Matthiole, Matthiolus) est un médecin et un botaniste[1] italien, né le 12 mars 1501 à Sienne et mort vers 1578 à Trente de la peste.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pietro Andrea Matthioli (ou Mattioli, Matthiole, Matthiolus) est un médecin et un botaniste italien, né le 12 mars 1501 à Sienne et mort vers 1578 à Trente de la peste.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, pourtant médecin exerçant à Venise, le destine au droit mais Mattioli finit par opter durant ses études pour la médecine.
-Il exerce dans différentes villes et devient le médecin de l'archiduc Ferdinand puis de l'empereur Maximilien II[2].
+Il exerce dans différentes villes et devient le médecin de l'archiduc Ferdinand puis de l'empereur Maximilien II.
 Le chef-d'œuvre botanique de Mattioli est son Commentarii in libros sex Pedacii Dioscoridis qui paraît pour la première en 1544 orné de 500 gravures. Il s'agit de notes que Mattioli prend durant ses loisirs. Le succès de ce livre est immense et on estime que 32 000 exemplaires de ses Commentaires ont été imprimés dans une soixantaine de versions. Les versions suivantes contiennent jusqu'à 1 200 illustrations. Contrairement à ce que l'on pourrait en conclure à la lecture du titre, il ne s'agit pas que d'une énième réédition de Dioscoride mais bien d'une œuvre plus personnelle dans laquelle Mattioli décrit toutes les plantes qu'il connaît. Les illustrations sont grandes et de très bonne qualité.
 Il y décrit des espèces nouvelles qu'il a récoltées dans le Tyrol mais aussi des spécimens qu'on lui a transmis (par exemple grâce au médecin de l'ambassadeur de Turquie. Il reçoit une aide active de son ami botaniste Luca Ghini.
 Joachim Camerarius le Jeune édita ses œuvres en allemand.
